--- a/Output/oto/Dang ki the oto.xlsx
+++ b/Output/oto/Dang ki the oto.xlsx
@@ -680,16 +680,21 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>No.0001T</t>
+          <t>No.0002</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>0012969248</t>
+          <t>0013890545</t>
         </is>
       </c>
       <c r="D7" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -698,12 +703,12 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>No.0002</t>
+          <t>No.0003</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>0013890545</t>
+          <t>0013890546</t>
         </is>
       </c>
       <c r="D8" s="9" t="n">
@@ -721,12 +726,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>No.0003</t>
+          <t>No.0004</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>0013890546</t>
+          <t>0013890547</t>
         </is>
       </c>
       <c r="D9" s="9" t="n">
@@ -744,16 +749,21 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>No.0003T</t>
+          <t>No.0005</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>0012967907</t>
+          <t>0013890548</t>
         </is>
       </c>
       <c r="D10" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -762,12 +772,12 @@
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>No.0004</t>
+          <t>No.0006</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>0013890547</t>
+          <t>0013890549</t>
         </is>
       </c>
       <c r="D11" s="9" t="n">
@@ -785,16 +795,21 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>No.0004T</t>
+          <t>No.0007</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>0012967826</t>
+          <t>0013890550</t>
         </is>
       </c>
       <c r="D12" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -803,12 +818,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>No.0005</t>
+          <t>No.0008</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>0013890548</t>
+          <t>0012641148</t>
         </is>
       </c>
       <c r="D13" s="9" t="n">
@@ -826,16 +841,21 @@
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>No.0005T</t>
+          <t>No.0009</t>
         </is>
       </c>
       <c r="C14" s="9" t="inlineStr">
         <is>
-          <t>0012999559</t>
+          <t>0013890610</t>
         </is>
       </c>
       <c r="D14" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -844,12 +864,12 @@
       </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>No.0006</t>
+          <t>No.0010</t>
         </is>
       </c>
       <c r="C15" s="9" t="inlineStr">
         <is>
-          <t>0013890549</t>
+          <t>0013890609</t>
         </is>
       </c>
       <c r="D15" s="9" t="n">
@@ -867,16 +887,21 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>No.0006T</t>
+          <t>No.0011</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>0012999554</t>
+          <t>0013890608</t>
         </is>
       </c>
       <c r="D16" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -885,12 +910,12 @@
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>No.0007</t>
+          <t>No.0012</t>
         </is>
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>0013890550</t>
+          <t>0013890607</t>
         </is>
       </c>
       <c r="D17" s="9" t="n">
@@ -908,12 +933,12 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>No.0008</t>
+          <t>No.0013</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>0012641148</t>
+          <t>0013890606</t>
         </is>
       </c>
       <c r="D18" s="9" t="n">
@@ -931,12 +956,12 @@
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>No.0009</t>
+          <t>No.0014</t>
         </is>
       </c>
       <c r="C19" s="9" t="inlineStr">
         <is>
-          <t>0013890610</t>
+          <t>0013890605</t>
         </is>
       </c>
       <c r="D19" s="9" t="n">
@@ -954,16 +979,21 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>No.0009T</t>
+          <t>No.0015</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>0012969245</t>
+          <t>0013890604</t>
         </is>
       </c>
       <c r="D20" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -972,12 +1002,12 @@
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>No.0010</t>
+          <t>No.0016</t>
         </is>
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>0013890609</t>
+          <t>0013890603</t>
         </is>
       </c>
       <c r="D21" s="9" t="n">
@@ -995,16 +1025,21 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>No.0010T</t>
+          <t>No.0017</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>0012969280</t>
+          <t>0013890602</t>
         </is>
       </c>
       <c r="D22" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1013,12 +1048,12 @@
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>No.0011</t>
+          <t>No.0018</t>
         </is>
       </c>
       <c r="C23" s="9" t="inlineStr">
         <is>
-          <t>0013890608</t>
+          <t>0013890601</t>
         </is>
       </c>
       <c r="D23" s="9" t="n">
@@ -1036,12 +1071,12 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>No.0012</t>
+          <t>No.0019</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>0013890607</t>
+          <t>0013890600</t>
         </is>
       </c>
       <c r="D24" s="9" t="n">
@@ -1059,16 +1094,21 @@
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>No.0012T</t>
+          <t>No.0020</t>
         </is>
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t>0002852005</t>
+          <t>0013890599</t>
         </is>
       </c>
       <c r="D25" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1077,12 +1117,12 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>No.0012T</t>
+          <t>No.0025</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>0012967829</t>
+          <t>0012976224</t>
         </is>
       </c>
       <c r="D26" s="9" t="n">
@@ -1095,21 +1135,16 @@
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>No.0013</t>
+          <t>No.0035</t>
         </is>
       </c>
       <c r="C27" s="9" t="inlineStr">
         <is>
-          <t>0013890606</t>
+          <t>0012999807</t>
         </is>
       </c>
       <c r="D27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1118,21 +1153,16 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>No.0014</t>
+          <t>No.0037</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>0013890605</t>
+          <t>0013000156</t>
         </is>
       </c>
       <c r="D28" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1141,21 +1171,16 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>No.0015</t>
+          <t>No.0038</t>
         </is>
       </c>
       <c r="C29" s="9" t="inlineStr">
         <is>
-          <t>0013890604</t>
+          <t>0012969214</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1164,12 +1189,12 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>No.0015T</t>
+          <t>No.0040</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>0012999778</t>
+          <t>0012969310</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
@@ -1182,12 +1207,12 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>No.0016</t>
+          <t>No.0041</t>
         </is>
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t>0013890603</t>
+          <t>0002822250</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
@@ -1205,12 +1230,12 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>No.0017</t>
+          <t>No.0042</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>0013890602</t>
+          <t>0002821986</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
@@ -1228,12 +1253,12 @@
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>No.0018</t>
+          <t>No.0043</t>
         </is>
       </c>
       <c r="C33" s="9" t="inlineStr">
         <is>
-          <t>0013890601</t>
+          <t>0002821693</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
@@ -1251,12 +1276,12 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>No.0019</t>
+          <t>No.0044</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>0013890600</t>
+          <t>0002821386</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -1274,12 +1299,12 @@
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>No.0020</t>
+          <t>No.0044</t>
         </is>
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>0013890599</t>
+          <t>0002821386</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -1297,16 +1322,21 @@
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>No.0020T</t>
+          <t>No.0046</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>0012967859</t>
+          <t>0002845689</t>
         </is>
       </c>
       <c r="D36" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1315,16 +1345,21 @@
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>No.0025</t>
+          <t>No.0048</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>0012976224</t>
+          <t>0002846294</t>
         </is>
       </c>
       <c r="D37" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1333,16 +1368,21 @@
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>No.0035</t>
+          <t>No.0049</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>0012999807</t>
+          <t>0002786594</t>
         </is>
       </c>
       <c r="D38" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1351,16 +1391,21 @@
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>No.0037</t>
+          <t>No.0050</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
         <is>
-          <t>0013000156</t>
+          <t>0002786659</t>
         </is>
       </c>
       <c r="D39" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1369,12 +1414,12 @@
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>No.0038</t>
+          <t>No.0059</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>0012969214</t>
+          <t>0012568004</t>
         </is>
       </c>
       <c r="D40" s="9" t="n">
@@ -1387,12 +1432,12 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>No.0040</t>
+          <t>No.0062</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t>0012969310</t>
+          <t>0012571496</t>
         </is>
       </c>
       <c r="D41" s="9" t="n">
@@ -1405,21 +1450,16 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>No.0041</t>
+          <t>No.0064</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>0002822250</t>
+          <t>0012571464</t>
         </is>
       </c>
       <c r="D42" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1428,21 +1468,16 @@
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>No.0042</t>
+          <t>No.0065</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
         <is>
-          <t>0002821986</t>
+          <t>0012567939</t>
         </is>
       </c>
       <c r="D43" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1451,21 +1486,16 @@
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>No.0043</t>
+          <t>No.0074</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>0002821693</t>
+          <t>0012571697</t>
         </is>
       </c>
       <c r="D44" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1474,21 +1504,16 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>No.0044</t>
+          <t>No.0075</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>0002821386</t>
+          <t>0012571665</t>
         </is>
       </c>
       <c r="D45" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1497,21 +1522,16 @@
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>No.0044</t>
+          <t>No.0076</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
         <is>
-          <t>0002821386</t>
+          <t>0012571658</t>
         </is>
       </c>
       <c r="D46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1520,12 +1540,12 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>No.0045T</t>
+          <t>No.0077</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>0013000124</t>
+          <t>0012571453</t>
         </is>
       </c>
       <c r="D47" s="9" t="n">
@@ -1538,21 +1558,16 @@
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>No.0046</t>
+          <t>No.0078</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>0002845689</t>
+          <t>0012571461</t>
         </is>
       </c>
       <c r="D48" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1561,12 +1576,12 @@
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>No.0047T</t>
+          <t>No.0079</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
         <is>
-          <t>0012969278</t>
+          <t>0012571486</t>
         </is>
       </c>
       <c r="D49" s="9" t="n">
@@ -1579,21 +1594,16 @@
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>No.0048</t>
+          <t>No.0081</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>0002846294</t>
+          <t>0012567893</t>
         </is>
       </c>
       <c r="D50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1602,12 +1612,12 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>No.0048T</t>
+          <t>No.0083</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>0012969279</t>
+          <t>0012567925</t>
         </is>
       </c>
       <c r="D51" s="9" t="n">
@@ -1620,21 +1630,16 @@
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>No.0049</t>
+          <t>No.0085</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>0002786594</t>
+          <t>0012567959</t>
         </is>
       </c>
       <c r="D52" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1643,21 +1648,16 @@
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>No.0050</t>
+          <t>No.0087</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
         <is>
-          <t>0002786659</t>
+          <t>0012567992</t>
         </is>
       </c>
       <c r="D53" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>No.0059</t>
+          <t>No.0090</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>0012568004</t>
+          <t>0012567043</t>
         </is>
       </c>
       <c r="D54" s="9" t="n">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="B55" s="9" t="inlineStr">
         <is>
-          <t>No.0062</t>
+          <t>No.0091</t>
         </is>
       </c>
       <c r="C55" s="9" t="inlineStr">
         <is>
-          <t>0012571496</t>
+          <t>0012567066</t>
         </is>
       </c>
       <c r="D55" s="9" t="n">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>No.0064</t>
+          <t>No.0093</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>0012571464</t>
+          <t>0012567099</t>
         </is>
       </c>
       <c r="D56" s="9" t="n">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B57" s="9" t="inlineStr">
         <is>
-          <t>No.0065</t>
+          <t>No.0094</t>
         </is>
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t>0012567939</t>
+          <t>0012567108</t>
         </is>
       </c>
       <c r="D57" s="9" t="n">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>No.0074</t>
+          <t>No.0098</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>0012571697</t>
+          <t>0012571729</t>
         </is>
       </c>
       <c r="D58" s="9" t="n">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>No.0075</t>
+          <t>No.0100</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
         <is>
-          <t>0012571665</t>
+          <t>0012567100</t>
         </is>
       </c>
       <c r="D59" s="9" t="n">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>No.0076</t>
+          <t>No.0101</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>0012571658</t>
+          <t>0012567107</t>
         </is>
       </c>
       <c r="D60" s="9" t="n">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="B61" s="9" t="inlineStr">
         <is>
-          <t>No.0077</t>
+          <t>No.0103</t>
         </is>
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t>0012571453</t>
+          <t>0012567958</t>
         </is>
       </c>
       <c r="D61" s="9" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>No.0078</t>
+          <t>No.0106</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>0012571461</t>
+          <t>0012571760</t>
         </is>
       </c>
       <c r="D62" s="9" t="n">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="B63" s="9" t="inlineStr">
         <is>
-          <t>No.0079</t>
+          <t>No.0110</t>
         </is>
       </c>
       <c r="C63" s="9" t="inlineStr">
         <is>
-          <t>0012571486</t>
+          <t>0012567991</t>
         </is>
       </c>
       <c r="D63" s="9" t="n">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>No.0081</t>
+          <t>No.0112</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>0012567893</t>
+          <t>0012567892</t>
         </is>
       </c>
       <c r="D64" s="9" t="n">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>No.0083</t>
+          <t>No.0114</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
         <is>
-          <t>0012567925</t>
+          <t>0012571767</t>
         </is>
       </c>
       <c r="D65" s="9" t="n">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>No.0085</t>
+          <t>No.0115</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>0012567959</t>
+          <t>0012567042</t>
         </is>
       </c>
       <c r="D66" s="9" t="n">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="B67" s="9" t="inlineStr">
         <is>
-          <t>No.0087</t>
+          <t>No.0116</t>
         </is>
       </c>
       <c r="C67" s="9" t="inlineStr">
         <is>
-          <t>0012567992</t>
+          <t>0012567068</t>
         </is>
       </c>
       <c r="D67" s="9" t="n">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>No.0090</t>
+          <t>No.0118</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>0012567043</t>
+          <t>0012568019</t>
         </is>
       </c>
       <c r="D68" s="9" t="n">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B69" s="9" t="inlineStr">
         <is>
-          <t>No.0091</t>
+          <t>No.0122</t>
         </is>
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>0012567066</t>
+          <t>0012567081</t>
         </is>
       </c>
       <c r="D69" s="9" t="n">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>No.0093</t>
+          <t>No.0123</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>0012567099</t>
+          <t>0012568013</t>
         </is>
       </c>
       <c r="D70" s="9" t="n">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="B71" s="9" t="inlineStr">
         <is>
-          <t>No.0094</t>
+          <t>No.0124</t>
         </is>
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>0012567108</t>
+          <t>0012567998</t>
         </is>
       </c>
       <c r="D71" s="9" t="n">
@@ -1990,12 +1990,12 @@
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>No.0098</t>
+          <t>No.0127</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>0012571729</t>
+          <t>0012571715</t>
         </is>
       </c>
       <c r="D72" s="9" t="n">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="B73" s="9" t="inlineStr">
         <is>
-          <t>No.0100</t>
+          <t>No.0130</t>
         </is>
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t>0012567100</t>
+          <t>0012567094</t>
         </is>
       </c>
       <c r="D73" s="9" t="n">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>No.0101</t>
+          <t>No.0132</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>0012567107</t>
+          <t>0012567980</t>
         </is>
       </c>
       <c r="D74" s="9" t="n">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="B75" s="9" t="inlineStr">
         <is>
-          <t>No.0103</t>
+          <t>No.0133</t>
         </is>
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>0012567958</t>
+          <t>0012567930</t>
         </is>
       </c>
       <c r="D75" s="9" t="n">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>No.0106</t>
+          <t>No.0135</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>0012571760</t>
+          <t>0012571736</t>
         </is>
       </c>
       <c r="D76" s="9" t="n">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="B77" s="9" t="inlineStr">
         <is>
-          <t>No.0110</t>
+          <t>No.0138</t>
         </is>
       </c>
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>0012567991</t>
+          <t>0012567113</t>
         </is>
       </c>
       <c r="D77" s="9" t="n">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>No.0112</t>
+          <t>No.0140</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>0012567892</t>
+          <t>0012567964</t>
         </is>
       </c>
       <c r="D78" s="9" t="n">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B79" s="9" t="inlineStr">
         <is>
-          <t>No.0114</t>
+          <t>No.0141</t>
         </is>
       </c>
       <c r="C79" s="9" t="inlineStr">
         <is>
-          <t>0012571767</t>
+          <t>0012567946</t>
         </is>
       </c>
       <c r="D79" s="9" t="n">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>No.0115</t>
+          <t>No.0142</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>0012567042</t>
+          <t>0012571685</t>
         </is>
       </c>
       <c r="D80" s="9" t="n">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B81" s="9" t="inlineStr">
         <is>
-          <t>No.0116</t>
+          <t>No.0144</t>
         </is>
       </c>
       <c r="C81" s="9" t="inlineStr">
         <is>
-          <t>0012567068</t>
+          <t>0012567060</t>
         </is>
       </c>
       <c r="D81" s="9" t="n">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>No.0118</t>
+          <t>No.0147</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>0012568019</t>
+          <t>0012977112</t>
         </is>
       </c>
       <c r="D82" s="9" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="B83" s="9" t="inlineStr">
         <is>
-          <t>No.0122</t>
+          <t>No.0148</t>
         </is>
       </c>
       <c r="C83" s="9" t="inlineStr">
         <is>
-          <t>0012567081</t>
+          <t>0012976158</t>
         </is>
       </c>
       <c r="D83" s="9" t="n">
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>No.0123</t>
+          <t>No.0158</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>0012568013</t>
+          <t>0012975551</t>
         </is>
       </c>
       <c r="D84" s="9" t="n">
@@ -2224,12 +2224,12 @@
       </c>
       <c r="B85" s="9" t="inlineStr">
         <is>
-          <t>No.0124</t>
+          <t>No.0160</t>
         </is>
       </c>
       <c r="C85" s="9" t="inlineStr">
         <is>
-          <t>0012567998</t>
+          <t>0012975518</t>
         </is>
       </c>
       <c r="D85" s="9" t="n">
@@ -2242,12 +2242,12 @@
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>No.0127</t>
+          <t>No.0161</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>0012571715</t>
+          <t>0012974202</t>
         </is>
       </c>
       <c r="D86" s="9" t="n">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B87" s="9" t="inlineStr">
         <is>
-          <t>No.0130</t>
+          <t>No.0162</t>
         </is>
       </c>
       <c r="C87" s="9" t="inlineStr">
         <is>
-          <t>0012567094</t>
+          <t>0012976039</t>
         </is>
       </c>
       <c r="D87" s="9" t="n">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>No.0132</t>
+          <t>No.0163</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>0012567980</t>
+          <t>0012976222</t>
         </is>
       </c>
       <c r="D88" s="9" t="n">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B89" s="9" t="inlineStr">
         <is>
-          <t>No.0133</t>
+          <t>No.0168</t>
         </is>
       </c>
       <c r="C89" s="9" t="inlineStr">
         <is>
-          <t>0012567930</t>
+          <t>0012976126</t>
         </is>
       </c>
       <c r="D89" s="9" t="n">
@@ -2314,12 +2314,12 @@
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>No.0135</t>
+          <t>No.0172</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>0012571736</t>
+          <t>0008124885</t>
         </is>
       </c>
       <c r="D90" s="9" t="n">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="B91" s="9" t="inlineStr">
         <is>
-          <t>No.0138</t>
+          <t>No.0173</t>
         </is>
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t>0012567113</t>
+          <t>0008123867</t>
         </is>
       </c>
       <c r="D91" s="9" t="n">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>No.0140</t>
+          <t>No.0177</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>0012567964</t>
+          <t>0008161900</t>
         </is>
       </c>
       <c r="D92" s="9" t="n">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="B93" s="9" t="inlineStr">
         <is>
-          <t>No.0141</t>
+          <t>No.0180</t>
         </is>
       </c>
       <c r="C93" s="9" t="inlineStr">
         <is>
-          <t>0012567946</t>
+          <t>0008161741</t>
         </is>
       </c>
       <c r="D93" s="9" t="n">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>No.0142</t>
+          <t>No.0277</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>0012571685</t>
+          <t>0012540220</t>
         </is>
       </c>
       <c r="D94" s="9" t="n">
@@ -2404,12 +2404,12 @@
       </c>
       <c r="B95" s="9" t="inlineStr">
         <is>
-          <t>No.0144</t>
+          <t>No.0850</t>
         </is>
       </c>
       <c r="C95" s="9" t="inlineStr">
         <is>
-          <t>0012567060</t>
+          <t>0012314391</t>
         </is>
       </c>
       <c r="D95" s="9" t="n">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>No.0147</t>
+          <t>No.1289</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>0012977112</t>
+          <t>0012638424</t>
         </is>
       </c>
       <c r="D96" s="9" t="n">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B97" s="9" t="inlineStr">
         <is>
-          <t>No.0148</t>
+          <t>No.1390</t>
         </is>
       </c>
       <c r="C97" s="9" t="inlineStr">
         <is>
-          <t>0012976158</t>
+          <t>0013260649</t>
         </is>
       </c>
       <c r="D97" s="9" t="n">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>No.0158</t>
+          <t>No.1391</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>0012975551</t>
+          <t>0013260825</t>
         </is>
       </c>
       <c r="D98" s="9" t="n">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B99" s="9" t="inlineStr">
         <is>
-          <t>No.0160</t>
+          <t>No.1437</t>
         </is>
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t>0012975518</t>
+          <t>0013277414</t>
         </is>
       </c>
       <c r="D99" s="9" t="n">
@@ -2494,12 +2494,12 @@
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>No.0161</t>
+          <t>No.1471</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
         <is>
-          <t>0012974202</t>
+          <t>0012974088</t>
         </is>
       </c>
       <c r="D100" s="9" t="n">
@@ -2512,12 +2512,12 @@
       </c>
       <c r="B101" s="9" t="inlineStr">
         <is>
-          <t>No.0162</t>
+          <t>No.1534</t>
         </is>
       </c>
       <c r="C101" s="9" t="inlineStr">
         <is>
-          <t>0012976039</t>
+          <t>0012543310</t>
         </is>
       </c>
       <c r="D101" s="9" t="n">
@@ -2530,12 +2530,12 @@
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>No.0163</t>
+          <t>No.1654</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
         <is>
-          <t>0012976222</t>
+          <t>0012783036</t>
         </is>
       </c>
       <c r="D102" s="9" t="n">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="B103" s="9" t="inlineStr">
         <is>
-          <t>No.0168</t>
+          <t>No.1683</t>
         </is>
       </c>
       <c r="C103" s="9" t="inlineStr">
         <is>
-          <t>0012976126</t>
+          <t>0012526592</t>
         </is>
       </c>
       <c r="D103" s="9" t="n">
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>No.0172</t>
+          <t>No.1695</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
         <is>
-          <t>0008124885</t>
+          <t>0012926483</t>
         </is>
       </c>
       <c r="D104" s="9" t="n">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B105" s="9" t="inlineStr">
         <is>
-          <t>No.0173</t>
+          <t>No.1714</t>
         </is>
       </c>
       <c r="C105" s="9" t="inlineStr">
         <is>
-          <t>0008123867</t>
+          <t>0012542890</t>
         </is>
       </c>
       <c r="D105" s="9" t="n">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>No.0177</t>
+          <t>No.1824</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>0008161900</t>
+          <t>0011770879</t>
         </is>
       </c>
       <c r="D106" s="9" t="n">
@@ -2620,12 +2620,12 @@
       </c>
       <c r="B107" s="9" t="inlineStr">
         <is>
-          <t>No.0180</t>
+          <t>No.1861</t>
         </is>
       </c>
       <c r="C107" s="9" t="inlineStr">
         <is>
-          <t>0008161741</t>
+          <t>0013259848</t>
         </is>
       </c>
       <c r="D107" s="9" t="n">
@@ -2638,21 +2638,16 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>No.00181</t>
+          <t>No.1883</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>0012299084</t>
+          <t>0013250848</t>
         </is>
       </c>
       <c r="D108" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2661,21 +2656,16 @@
       </c>
       <c r="B109" s="9" t="inlineStr">
         <is>
-          <t>No.00182</t>
+          <t>No.2202</t>
         </is>
       </c>
       <c r="C109" s="9" t="inlineStr">
         <is>
-          <t>0012299061</t>
+          <t>0012307799</t>
         </is>
       </c>
       <c r="D109" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2684,21 +2674,16 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>No.00184</t>
+          <t>No.2287</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
         <is>
-          <t>0012298852</t>
+          <t>0012576377</t>
         </is>
       </c>
       <c r="D110" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2707,21 +2692,16 @@
       </c>
       <c r="B111" s="9" t="inlineStr">
         <is>
-          <t>No.00187</t>
+          <t>No.2318</t>
         </is>
       </c>
       <c r="C111" s="9" t="inlineStr">
         <is>
-          <t>0012298811</t>
+          <t>0013000115</t>
         </is>
       </c>
       <c r="D111" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2730,21 +2710,16 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>No.00190</t>
+          <t>No.2357</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t>0012297881</t>
+          <t>0013812986</t>
         </is>
       </c>
       <c r="D112" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2753,21 +2728,16 @@
       </c>
       <c r="B113" s="9" t="inlineStr">
         <is>
-          <t>No.00195</t>
+          <t>No.2372</t>
         </is>
       </c>
       <c r="C113" s="9" t="inlineStr">
         <is>
-          <t>0012297968</t>
+          <t>0013678884</t>
         </is>
       </c>
       <c r="D113" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2776,21 +2746,16 @@
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>No.00202</t>
+          <t>No.2373</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
         <is>
-          <t>0012310356</t>
+          <t>0013678694</t>
         </is>
       </c>
       <c r="D114" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2799,21 +2764,16 @@
       </c>
       <c r="B115" s="9" t="inlineStr">
         <is>
-          <t>No.00204</t>
+          <t>No.2458</t>
         </is>
       </c>
       <c r="C115" s="9" t="inlineStr">
         <is>
-          <t>0012299045</t>
+          <t>0008123062</t>
         </is>
       </c>
       <c r="D115" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -2822,21 +2782,16 @@
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>No.00205</t>
+          <t>No.2776</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>0012975586</t>
+          <t>0002875687</t>
         </is>
       </c>
       <c r="D116" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="9" t="inlineStr">
-        <is>
-          <t>ÔTÔ LƯỢT</t>
-        </is>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2845,12 +2800,12 @@
       </c>
       <c r="B117" s="9" t="inlineStr">
         <is>
-          <t>No.0277</t>
+          <t>No.2882</t>
         </is>
       </c>
       <c r="C117" s="9" t="inlineStr">
         <is>
-          <t>0012540220</t>
+          <t>0002837431</t>
         </is>
       </c>
       <c r="D117" s="9" t="n">
@@ -2863,12 +2818,12 @@
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>No.0850</t>
+          <t>No.3121</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>0012314391</t>
+          <t>0013287216</t>
         </is>
       </c>
       <c r="D118" s="9" t="n">
@@ -2881,12 +2836,12 @@
       </c>
       <c r="B119" s="9" t="inlineStr">
         <is>
-          <t>No.1289</t>
+          <t>No.3130</t>
         </is>
       </c>
       <c r="C119" s="9" t="inlineStr">
         <is>
-          <t>0012638424</t>
+          <t>0013283132</t>
         </is>
       </c>
       <c r="D119" s="9" t="n">
@@ -2899,12 +2854,12 @@
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>No.1390</t>
+          <t>No.3133</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>0013260649</t>
+          <t>0013312537</t>
         </is>
       </c>
       <c r="D120" s="9" t="n">
@@ -2917,12 +2872,12 @@
       </c>
       <c r="B121" s="9" t="inlineStr">
         <is>
-          <t>No.1391</t>
+          <t>No.3195</t>
         </is>
       </c>
       <c r="C121" s="9" t="inlineStr">
         <is>
-          <t>0013260825</t>
+          <t>0013277879</t>
         </is>
       </c>
       <c r="D121" s="9" t="n">
@@ -2935,12 +2890,12 @@
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>No.1437</t>
+          <t>No.3442</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
         <is>
-          <t>0013277414</t>
+          <t>0012191677</t>
         </is>
       </c>
       <c r="D122" s="9" t="n">
@@ -2953,12 +2908,12 @@
       </c>
       <c r="B123" s="9" t="inlineStr">
         <is>
-          <t>No.1471</t>
+          <t>No.3484</t>
         </is>
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t>0012974088</t>
+          <t>0013406799</t>
         </is>
       </c>
       <c r="D123" s="9" t="n">
@@ -2971,12 +2926,12 @@
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>No.1534</t>
+          <t>No.3489</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>0012543310</t>
+          <t>0013197837</t>
         </is>
       </c>
       <c r="D124" s="9" t="n">
@@ -2989,12 +2944,12 @@
       </c>
       <c r="B125" s="9" t="inlineStr">
         <is>
-          <t>No.1654</t>
+          <t>No.3490</t>
         </is>
       </c>
       <c r="C125" s="9" t="inlineStr">
         <is>
-          <t>0012783036</t>
+          <t>0013441519</t>
         </is>
       </c>
       <c r="D125" s="9" t="n">
@@ -3007,12 +2962,12 @@
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>No.1683</t>
+          <t>No.3598</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
         <is>
-          <t>0012526592</t>
+          <t>0012215995</t>
         </is>
       </c>
       <c r="D126" s="9" t="n">
@@ -3025,12 +2980,12 @@
       </c>
       <c r="B127" s="9" t="inlineStr">
         <is>
-          <t>No.1695</t>
+          <t>No.3622</t>
         </is>
       </c>
       <c r="C127" s="9" t="inlineStr">
         <is>
-          <t>0012926483</t>
+          <t>0012260567</t>
         </is>
       </c>
       <c r="D127" s="9" t="n">
@@ -3043,12 +2998,12 @@
       </c>
       <c r="B128" s="9" t="inlineStr">
         <is>
-          <t>No.1714</t>
+          <t>No.3806</t>
         </is>
       </c>
       <c r="C128" s="9" t="inlineStr">
         <is>
-          <t>0012542890</t>
+          <t>0008096028</t>
         </is>
       </c>
       <c r="D128" s="9" t="n">
@@ -3061,12 +3016,12 @@
       </c>
       <c r="B129" s="9" t="inlineStr">
         <is>
-          <t>No.1824</t>
+          <t>No.3841</t>
         </is>
       </c>
       <c r="C129" s="9" t="inlineStr">
         <is>
-          <t>0011770879</t>
+          <t>0008120026</t>
         </is>
       </c>
       <c r="D129" s="9" t="n">
@@ -3079,12 +3034,12 @@
       </c>
       <c r="B130" s="9" t="inlineStr">
         <is>
-          <t>No.1861</t>
+          <t>No.3854</t>
         </is>
       </c>
       <c r="C130" s="9" t="inlineStr">
         <is>
-          <t>0013259848</t>
+          <t>0008111802</t>
         </is>
       </c>
       <c r="D130" s="9" t="n">
@@ -3097,12 +3052,12 @@
       </c>
       <c r="B131" s="9" t="inlineStr">
         <is>
-          <t>No.1883</t>
+          <t>No.3863</t>
         </is>
       </c>
       <c r="C131" s="9" t="inlineStr">
         <is>
-          <t>0013250848</t>
+          <t>0008047385</t>
         </is>
       </c>
       <c r="D131" s="9" t="n">
@@ -3115,12 +3070,12 @@
       </c>
       <c r="B132" s="9" t="inlineStr">
         <is>
-          <t>No.2202</t>
+          <t>No.3886</t>
         </is>
       </c>
       <c r="C132" s="9" t="inlineStr">
         <is>
-          <t>0012307799</t>
+          <t>0004626798</t>
         </is>
       </c>
       <c r="D132" s="9" t="n">
@@ -3133,12 +3088,12 @@
       </c>
       <c r="B133" s="9" t="inlineStr">
         <is>
-          <t>No.2287</t>
+          <t>No.3888</t>
         </is>
       </c>
       <c r="C133" s="9" t="inlineStr">
         <is>
-          <t>0012576377</t>
+          <t>0008017617</t>
         </is>
       </c>
       <c r="D133" s="9" t="n">
@@ -3151,12 +3106,12 @@
       </c>
       <c r="B134" s="9" t="inlineStr">
         <is>
-          <t>No.2318</t>
+          <t>No.3924</t>
         </is>
       </c>
       <c r="C134" s="9" t="inlineStr">
         <is>
-          <t>0013000115</t>
+          <t>0008099895</t>
         </is>
       </c>
       <c r="D134" s="9" t="n">
@@ -3169,12 +3124,12 @@
       </c>
       <c r="B135" s="9" t="inlineStr">
         <is>
-          <t>No.2357</t>
+          <t>No.4249</t>
         </is>
       </c>
       <c r="C135" s="9" t="inlineStr">
         <is>
-          <t>0013812986</t>
+          <t>0010859337</t>
         </is>
       </c>
       <c r="D135" s="9" t="n">
@@ -3187,12 +3142,12 @@
       </c>
       <c r="B136" s="9" t="inlineStr">
         <is>
-          <t>No.2372</t>
+          <t>No.4324</t>
         </is>
       </c>
       <c r="C136" s="9" t="inlineStr">
         <is>
-          <t>0013678884</t>
+          <t>0003786581</t>
         </is>
       </c>
       <c r="D136" s="9" t="n">
@@ -3205,12 +3160,12 @@
       </c>
       <c r="B137" s="9" t="inlineStr">
         <is>
-          <t>No.2373</t>
+          <t>No.4329</t>
         </is>
       </c>
       <c r="C137" s="9" t="inlineStr">
         <is>
-          <t>0013678694</t>
+          <t>0003786644</t>
         </is>
       </c>
       <c r="D137" s="9" t="n">
@@ -3223,12 +3178,12 @@
       </c>
       <c r="B138" s="9" t="inlineStr">
         <is>
-          <t>No.2378AD</t>
+          <t>No.4367</t>
         </is>
       </c>
       <c r="C138" s="9" t="inlineStr">
         <is>
-          <t>0006845532</t>
+          <t>0003787981</t>
         </is>
       </c>
       <c r="D138" s="9" t="n">
@@ -3241,12 +3196,12 @@
       </c>
       <c r="B139" s="9" t="inlineStr">
         <is>
-          <t>No.2458</t>
+          <t>No.4370</t>
         </is>
       </c>
       <c r="C139" s="9" t="inlineStr">
         <is>
-          <t>0008123062</t>
+          <t>0003788010</t>
         </is>
       </c>
       <c r="D139" s="9" t="n">
@@ -3259,12 +3214,12 @@
       </c>
       <c r="B140" s="9" t="inlineStr">
         <is>
-          <t>No.AD2493</t>
+          <t>No.4408</t>
         </is>
       </c>
       <c r="C140" s="9" t="inlineStr">
         <is>
-          <t>0008966602</t>
+          <t>0001171056</t>
         </is>
       </c>
       <c r="D140" s="9" t="n">
@@ -3277,12 +3232,12 @@
       </c>
       <c r="B141" s="9" t="inlineStr">
         <is>
-          <t>No.2776</t>
+          <t>No.4423</t>
         </is>
       </c>
       <c r="C141" s="9" t="inlineStr">
         <is>
-          <t>0002875687</t>
+          <t>0004463833</t>
         </is>
       </c>
       <c r="D141" s="9" t="n">
@@ -3295,12 +3250,12 @@
       </c>
       <c r="B142" s="9" t="inlineStr">
         <is>
-          <t>No.2882</t>
+          <t>No.4623</t>
         </is>
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t>0002837431</t>
+          <t>0012194992</t>
         </is>
       </c>
       <c r="D142" s="9" t="n">
@@ -3313,12 +3268,12 @@
       </c>
       <c r="B143" s="9" t="inlineStr">
         <is>
-          <t>No.2908AD</t>
+          <t>No.4624</t>
         </is>
       </c>
       <c r="C143" s="9" t="inlineStr">
         <is>
-          <t>0002914381</t>
+          <t>0012197637</t>
         </is>
       </c>
       <c r="D143" s="9" t="n">
@@ -3331,12 +3286,12 @@
       </c>
       <c r="B144" s="9" t="inlineStr">
         <is>
-          <t>No.3121</t>
+          <t>No.4626</t>
         </is>
       </c>
       <c r="C144" s="9" t="inlineStr">
         <is>
-          <t>0013287216</t>
+          <t>0012204430</t>
         </is>
       </c>
       <c r="D144" s="9" t="n">
@@ -3349,12 +3304,12 @@
       </c>
       <c r="B145" s="9" t="inlineStr">
         <is>
-          <t>No.3130</t>
+          <t>No.4627</t>
         </is>
       </c>
       <c r="C145" s="9" t="inlineStr">
         <is>
-          <t>0013283132</t>
+          <t>0012208486</t>
         </is>
       </c>
       <c r="D145" s="9" t="n">
@@ -3367,12 +3322,12 @@
       </c>
       <c r="B146" s="9" t="inlineStr">
         <is>
-          <t>No.3133</t>
+          <t>No.4630</t>
         </is>
       </c>
       <c r="C146" s="9" t="inlineStr">
         <is>
-          <t>0013312537</t>
+          <t>0012178707</t>
         </is>
       </c>
       <c r="D146" s="9" t="n">
@@ -3385,12 +3340,12 @@
       </c>
       <c r="B147" s="9" t="inlineStr">
         <is>
-          <t>No.3180AD</t>
+          <t>No.4656</t>
         </is>
       </c>
       <c r="C147" s="9" t="inlineStr">
         <is>
-          <t>0013522005</t>
+          <t>0012171376</t>
         </is>
       </c>
       <c r="D147" s="9" t="n">
@@ -3403,12 +3358,12 @@
       </c>
       <c r="B148" s="9" t="inlineStr">
         <is>
-          <t>No.3195</t>
+          <t>No.4658</t>
         </is>
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t>0013277879</t>
+          <t>0012167083</t>
         </is>
       </c>
       <c r="D148" s="9" t="n">
@@ -3421,12 +3376,12 @@
       </c>
       <c r="B149" s="9" t="inlineStr">
         <is>
-          <t>No.3237AD</t>
+          <t>No.4663</t>
         </is>
       </c>
       <c r="C149" s="9" t="inlineStr">
         <is>
-          <t>0013470642</t>
+          <t>0012235301</t>
         </is>
       </c>
       <c r="D149" s="9" t="n">
@@ -3439,12 +3394,12 @@
       </c>
       <c r="B150" s="9" t="inlineStr">
         <is>
-          <t>No.3421AD</t>
+          <t>No.4681</t>
         </is>
       </c>
       <c r="C150" s="9" t="inlineStr">
         <is>
-          <t>0012382941</t>
+          <t>0012696388</t>
         </is>
       </c>
       <c r="D150" s="9" t="n">
@@ -3457,12 +3412,12 @@
       </c>
       <c r="B151" s="9" t="inlineStr">
         <is>
-          <t>No.3442</t>
+          <t>No.4688</t>
         </is>
       </c>
       <c r="C151" s="9" t="inlineStr">
         <is>
-          <t>0012191677</t>
+          <t>0012715869</t>
         </is>
       </c>
       <c r="D151" s="9" t="n">
@@ -3475,12 +3430,12 @@
       </c>
       <c r="B152" s="9" t="inlineStr">
         <is>
-          <t>No.3479AD</t>
+          <t>No.4693</t>
         </is>
       </c>
       <c r="C152" s="9" t="inlineStr">
         <is>
-          <t>0013192959</t>
+          <t>0012702702</t>
         </is>
       </c>
       <c r="D152" s="9" t="n">
@@ -3493,12 +3448,12 @@
       </c>
       <c r="B153" s="9" t="inlineStr">
         <is>
-          <t>No.3480AD</t>
+          <t>No.4701</t>
         </is>
       </c>
       <c r="C153" s="9" t="inlineStr">
         <is>
-          <t>0013272351</t>
+          <t>0012654562</t>
         </is>
       </c>
       <c r="D153" s="9" t="n">
@@ -3511,12 +3466,12 @@
       </c>
       <c r="B154" s="9" t="inlineStr">
         <is>
-          <t>No.3481AD</t>
+          <t>No.4813</t>
         </is>
       </c>
       <c r="C154" s="9" t="inlineStr">
         <is>
-          <t>0013413032</t>
+          <t>0012422534</t>
         </is>
       </c>
       <c r="D154" s="9" t="n">
@@ -3529,12 +3484,12 @@
       </c>
       <c r="B155" s="9" t="inlineStr">
         <is>
-          <t>No.3483AD</t>
+          <t>No.4814</t>
         </is>
       </c>
       <c r="C155" s="9" t="inlineStr">
         <is>
-          <t>0013454352</t>
+          <t>0012422274</t>
         </is>
       </c>
       <c r="D155" s="9" t="n">
@@ -3547,12 +3502,12 @@
       </c>
       <c r="B156" s="9" t="inlineStr">
         <is>
-          <t>No.3484</t>
+          <t>No.4815</t>
         </is>
       </c>
       <c r="C156" s="9" t="inlineStr">
         <is>
-          <t>0013406799</t>
+          <t>0012416393</t>
         </is>
       </c>
       <c r="D156" s="9" t="n">
@@ -3565,12 +3520,12 @@
       </c>
       <c r="B157" s="9" t="inlineStr">
         <is>
-          <t>No.3489</t>
+          <t>No.4816</t>
         </is>
       </c>
       <c r="C157" s="9" t="inlineStr">
         <is>
-          <t>0013197837</t>
+          <t>0012416099</t>
         </is>
       </c>
       <c r="D157" s="9" t="n">
@@ -3583,12 +3538,12 @@
       </c>
       <c r="B158" s="9" t="inlineStr">
         <is>
-          <t>No.3490</t>
+          <t>No.4817</t>
         </is>
       </c>
       <c r="C158" s="9" t="inlineStr">
         <is>
-          <t>0013441519</t>
+          <t>0012409891</t>
         </is>
       </c>
       <c r="D158" s="9" t="n">
@@ -3601,12 +3556,12 @@
       </c>
       <c r="B159" s="9" t="inlineStr">
         <is>
-          <t>No.3491AD</t>
+          <t>No.4818</t>
         </is>
       </c>
       <c r="C159" s="9" t="inlineStr">
         <is>
-          <t>0013484508</t>
+          <t>0012409608</t>
         </is>
       </c>
       <c r="D159" s="9" t="n">
@@ -3619,12 +3574,12 @@
       </c>
       <c r="B160" s="9" t="inlineStr">
         <is>
-          <t>No.3500AD</t>
+          <t>No.4819</t>
         </is>
       </c>
       <c r="C160" s="9" t="inlineStr">
         <is>
-          <t>0013607719</t>
+          <t>0012350213</t>
         </is>
       </c>
       <c r="D160" s="9" t="n">
@@ -3637,12 +3592,12 @@
       </c>
       <c r="B161" s="9" t="inlineStr">
         <is>
-          <t>No.3508AD</t>
+          <t>No.4820</t>
         </is>
       </c>
       <c r="C161" s="9" t="inlineStr">
         <is>
-          <t>0013607439</t>
+          <t>0012351531</t>
         </is>
       </c>
       <c r="D161" s="9" t="n">
@@ -3655,12 +3610,12 @@
       </c>
       <c r="B162" s="9" t="inlineStr">
         <is>
-          <t>No.3509AD</t>
+          <t>No.4821</t>
         </is>
       </c>
       <c r="C162" s="9" t="inlineStr">
         <is>
-          <t>0013693187</t>
+          <t>0012351694</t>
         </is>
       </c>
       <c r="D162" s="9" t="n">
@@ -3673,12 +3628,12 @@
       </c>
       <c r="B163" s="9" t="inlineStr">
         <is>
-          <t>No.3519AD</t>
+          <t>No.4824</t>
         </is>
       </c>
       <c r="C163" s="9" t="inlineStr">
         <is>
-          <t>0013633538</t>
+          <t>0012360382</t>
         </is>
       </c>
       <c r="D163" s="9" t="n">
@@ -3691,12 +3646,12 @@
       </c>
       <c r="B164" s="9" t="inlineStr">
         <is>
-          <t>No.3529AD</t>
+          <t>No.4828</t>
         </is>
       </c>
       <c r="C164" s="9" t="inlineStr">
         <is>
-          <t>0013454366</t>
+          <t>0012372216</t>
         </is>
       </c>
       <c r="D164" s="9" t="n">
@@ -3709,12 +3664,12 @@
       </c>
       <c r="B165" s="9" t="inlineStr">
         <is>
-          <t>No.3572AD</t>
+          <t>No.4829</t>
         </is>
       </c>
       <c r="C165" s="9" t="inlineStr">
         <is>
-          <t>0012241226</t>
+          <t>0012372508</t>
         </is>
       </c>
       <c r="D165" s="9" t="n">
@@ -3727,12 +3682,12 @@
       </c>
       <c r="B166" s="9" t="inlineStr">
         <is>
-          <t>No.3577AD</t>
+          <t>No.4830</t>
         </is>
       </c>
       <c r="C166" s="9" t="inlineStr">
         <is>
-          <t>0012224349</t>
+          <t>0012378726</t>
         </is>
       </c>
       <c r="D166" s="9" t="n">
@@ -3745,12 +3700,12 @@
       </c>
       <c r="B167" s="9" t="inlineStr">
         <is>
-          <t>No.3598</t>
+          <t>No.4831</t>
         </is>
       </c>
       <c r="C167" s="9" t="inlineStr">
         <is>
-          <t>0012215995</t>
+          <t>0012379026</t>
         </is>
       </c>
       <c r="D167" s="9" t="n">
@@ -3763,12 +3718,12 @@
       </c>
       <c r="B168" s="9" t="inlineStr">
         <is>
-          <t>No.3622</t>
+          <t>No.4839</t>
         </is>
       </c>
       <c r="C168" s="9" t="inlineStr">
         <is>
-          <t>0012260567</t>
+          <t>0012389551</t>
         </is>
       </c>
       <c r="D168" s="9" t="n">
@@ -3781,12 +3736,12 @@
       </c>
       <c r="B169" s="9" t="inlineStr">
         <is>
-          <t>No.3628AD</t>
+          <t>No.4840</t>
         </is>
       </c>
       <c r="C169" s="9" t="inlineStr">
         <is>
-          <t>0012359502</t>
+          <t>0012423526</t>
         </is>
       </c>
       <c r="D169" s="9" t="n">
@@ -3799,12 +3754,12 @@
       </c>
       <c r="B170" s="9" t="inlineStr">
         <is>
-          <t>No.3635AD</t>
+          <t>No.5021</t>
         </is>
       </c>
       <c r="C170" s="9" t="inlineStr">
         <is>
-          <t>0012390873</t>
+          <t>0004142745</t>
         </is>
       </c>
       <c r="D170" s="9" t="n">
@@ -3817,12 +3772,12 @@
       </c>
       <c r="B171" s="9" t="inlineStr">
         <is>
-          <t>No.3663AD</t>
+          <t>No.5022</t>
         </is>
       </c>
       <c r="C171" s="9" t="inlineStr">
         <is>
-          <t>0012100600</t>
+          <t>0004100831</t>
         </is>
       </c>
       <c r="D171" s="9" t="n">
@@ -3835,12 +3790,12 @@
       </c>
       <c r="B172" s="9" t="inlineStr">
         <is>
-          <t>No.3783AD</t>
+          <t>No.5023</t>
         </is>
       </c>
       <c r="C172" s="9" t="inlineStr">
         <is>
-          <t>0008378629</t>
+          <t>0004100830</t>
         </is>
       </c>
       <c r="D172" s="9" t="n">
@@ -3853,12 +3808,12 @@
       </c>
       <c r="B173" s="9" t="inlineStr">
         <is>
-          <t>No.3804AD</t>
+          <t>No.5024</t>
         </is>
       </c>
       <c r="C173" s="9" t="inlineStr">
         <is>
-          <t>0008262686</t>
+          <t>0004100829</t>
         </is>
       </c>
       <c r="D173" s="9" t="n">
@@ -3871,12 +3826,12 @@
       </c>
       <c r="B174" s="9" t="inlineStr">
         <is>
-          <t>No.3805AD</t>
+          <t>No.5025</t>
         </is>
       </c>
       <c r="C174" s="9" t="inlineStr">
         <is>
-          <t>0008367920</t>
+          <t>0004100828</t>
         </is>
       </c>
       <c r="D174" s="9" t="n">
@@ -3889,12 +3844,12 @@
       </c>
       <c r="B175" s="9" t="inlineStr">
         <is>
-          <t>No.3806</t>
+          <t>No.5026</t>
         </is>
       </c>
       <c r="C175" s="9" t="inlineStr">
         <is>
-          <t>0008096028</t>
+          <t>0004100827</t>
         </is>
       </c>
       <c r="D175" s="9" t="n">
@@ -3907,12 +3862,12 @@
       </c>
       <c r="B176" s="9" t="inlineStr">
         <is>
-          <t>No.3841</t>
+          <t>No.5027</t>
         </is>
       </c>
       <c r="C176" s="9" t="inlineStr">
         <is>
-          <t>0008120026</t>
+          <t>0004100826</t>
         </is>
       </c>
       <c r="D176" s="9" t="n">
@@ -3925,12 +3880,12 @@
       </c>
       <c r="B177" s="9" t="inlineStr">
         <is>
-          <t>No.3854</t>
+          <t>No.5033</t>
         </is>
       </c>
       <c r="C177" s="9" t="inlineStr">
         <is>
-          <t>0008111802</t>
+          <t>0004142740</t>
         </is>
       </c>
       <c r="D177" s="9" t="n">
@@ -3943,12 +3898,12 @@
       </c>
       <c r="B178" s="9" t="inlineStr">
         <is>
-          <t>No.3863</t>
+          <t>No.5034</t>
         </is>
       </c>
       <c r="C178" s="9" t="inlineStr">
         <is>
-          <t>0008047385</t>
+          <t>0004142739</t>
         </is>
       </c>
       <c r="D178" s="9" t="n">
@@ -3961,12 +3916,12 @@
       </c>
       <c r="B179" s="9" t="inlineStr">
         <is>
-          <t>No.3886</t>
+          <t>No.5035</t>
         </is>
       </c>
       <c r="C179" s="9" t="inlineStr">
         <is>
-          <t>0004626798</t>
+          <t>0004142738</t>
         </is>
       </c>
       <c r="D179" s="9" t="n">
@@ -3979,12 +3934,12 @@
       </c>
       <c r="B180" s="9" t="inlineStr">
         <is>
-          <t>No.3888</t>
+          <t>No.5037</t>
         </is>
       </c>
       <c r="C180" s="9" t="inlineStr">
         <is>
-          <t>0008017617</t>
+          <t>0004142761</t>
         </is>
       </c>
       <c r="D180" s="9" t="n">
@@ -3997,12 +3952,12 @@
       </c>
       <c r="B181" s="9" t="inlineStr">
         <is>
-          <t>No.3924</t>
+          <t>No.5038</t>
         </is>
       </c>
       <c r="C181" s="9" t="inlineStr">
         <is>
-          <t>0008099895</t>
+          <t>0004142762</t>
         </is>
       </c>
       <c r="D181" s="9" t="n">
@@ -4015,12 +3970,12 @@
       </c>
       <c r="B182" s="9" t="inlineStr">
         <is>
-          <t>No.4249</t>
+          <t>No.5039</t>
         </is>
       </c>
       <c r="C182" s="9" t="inlineStr">
         <is>
-          <t>0010859337</t>
+          <t>0004142736</t>
         </is>
       </c>
       <c r="D182" s="9" t="n">
@@ -4033,12 +3988,12 @@
       </c>
       <c r="B183" s="9" t="inlineStr">
         <is>
-          <t>No.4324</t>
+          <t>No.5040</t>
         </is>
       </c>
       <c r="C183" s="9" t="inlineStr">
         <is>
-          <t>0003786581</t>
+          <t>0012657460</t>
         </is>
       </c>
       <c r="D183" s="9" t="n">
@@ -4051,12 +4006,12 @@
       </c>
       <c r="B184" s="9" t="inlineStr">
         <is>
-          <t>No.4329</t>
+          <t>No.5041</t>
         </is>
       </c>
       <c r="C184" s="9" t="inlineStr">
         <is>
-          <t>0003786644</t>
+          <t>0004142734</t>
         </is>
       </c>
       <c r="D184" s="9" t="n">
@@ -4069,12 +4024,12 @@
       </c>
       <c r="B185" s="9" t="inlineStr">
         <is>
-          <t>No.4367</t>
+          <t>No.5042</t>
         </is>
       </c>
       <c r="C185" s="9" t="inlineStr">
         <is>
-          <t>0003787981</t>
+          <t>0004142732</t>
         </is>
       </c>
       <c r="D185" s="9" t="n">
@@ -4087,12 +4042,12 @@
       </c>
       <c r="B186" s="9" t="inlineStr">
         <is>
-          <t>No.4370</t>
+          <t>No.5044</t>
         </is>
       </c>
       <c r="C186" s="9" t="inlineStr">
         <is>
-          <t>0003788010</t>
+          <t>0004142730</t>
         </is>
       </c>
       <c r="D186" s="9" t="n">
@@ -4105,12 +4060,12 @@
       </c>
       <c r="B187" s="9" t="inlineStr">
         <is>
-          <t>No.4408</t>
+          <t>No.5045</t>
         </is>
       </c>
       <c r="C187" s="9" t="inlineStr">
         <is>
-          <t>0001171056</t>
+          <t>0012650950</t>
         </is>
       </c>
       <c r="D187" s="9" t="n">
@@ -4123,12 +4078,12 @@
       </c>
       <c r="B188" s="9" t="inlineStr">
         <is>
-          <t>No.4423</t>
+          <t>No.5046</t>
         </is>
       </c>
       <c r="C188" s="9" t="inlineStr">
         <is>
-          <t>0004463833</t>
+          <t>0012650660</t>
         </is>
       </c>
       <c r="D188" s="9" t="n">
@@ -4141,12 +4096,12 @@
       </c>
       <c r="B189" s="9" t="inlineStr">
         <is>
-          <t>No.4623</t>
+          <t>No.0001T</t>
         </is>
       </c>
       <c r="C189" s="9" t="inlineStr">
         <is>
-          <t>0012194992</t>
+          <t>0012969248</t>
         </is>
       </c>
       <c r="D189" s="9" t="n">
@@ -4159,12 +4114,12 @@
       </c>
       <c r="B190" s="9" t="inlineStr">
         <is>
-          <t>No.4624</t>
+          <t>No.0003T</t>
         </is>
       </c>
       <c r="C190" s="9" t="inlineStr">
         <is>
-          <t>0012197637</t>
+          <t>0012967907</t>
         </is>
       </c>
       <c r="D190" s="9" t="n">
@@ -4177,12 +4132,12 @@
       </c>
       <c r="B191" s="9" t="inlineStr">
         <is>
-          <t>No.4626</t>
+          <t>No.0004T</t>
         </is>
       </c>
       <c r="C191" s="9" t="inlineStr">
         <is>
-          <t>0012204430</t>
+          <t>0012967826</t>
         </is>
       </c>
       <c r="D191" s="9" t="n">
@@ -4195,12 +4150,12 @@
       </c>
       <c r="B192" s="9" t="inlineStr">
         <is>
-          <t>No.4627</t>
+          <t>No.0005T</t>
         </is>
       </c>
       <c r="C192" s="9" t="inlineStr">
         <is>
-          <t>0012208486</t>
+          <t>0012999559</t>
         </is>
       </c>
       <c r="D192" s="9" t="n">
@@ -4213,12 +4168,12 @@
       </c>
       <c r="B193" s="9" t="inlineStr">
         <is>
-          <t>No.4630</t>
+          <t>No.0006T</t>
         </is>
       </c>
       <c r="C193" s="9" t="inlineStr">
         <is>
-          <t>0012178707</t>
+          <t>0012999554</t>
         </is>
       </c>
       <c r="D193" s="9" t="n">
@@ -4231,12 +4186,12 @@
       </c>
       <c r="B194" s="9" t="inlineStr">
         <is>
-          <t>No.4656</t>
+          <t>No.0009T</t>
         </is>
       </c>
       <c r="C194" s="9" t="inlineStr">
         <is>
-          <t>0012171376</t>
+          <t>0012969245</t>
         </is>
       </c>
       <c r="D194" s="9" t="n">
@@ -4249,12 +4204,12 @@
       </c>
       <c r="B195" s="9" t="inlineStr">
         <is>
-          <t>No.4658</t>
+          <t>No.0010T</t>
         </is>
       </c>
       <c r="C195" s="9" t="inlineStr">
         <is>
-          <t>0012167083</t>
+          <t>0012969280</t>
         </is>
       </c>
       <c r="D195" s="9" t="n">
@@ -4267,12 +4222,12 @@
       </c>
       <c r="B196" s="9" t="inlineStr">
         <is>
-          <t>No.4663</t>
+          <t>No.0012T</t>
         </is>
       </c>
       <c r="C196" s="9" t="inlineStr">
         <is>
-          <t>0012235301</t>
+          <t>0002852005</t>
         </is>
       </c>
       <c r="D196" s="9" t="n">
@@ -4285,12 +4240,12 @@
       </c>
       <c r="B197" s="9" t="inlineStr">
         <is>
-          <t>No.4681</t>
+          <t>No.0012T</t>
         </is>
       </c>
       <c r="C197" s="9" t="inlineStr">
         <is>
-          <t>0012696388</t>
+          <t>0012967829</t>
         </is>
       </c>
       <c r="D197" s="9" t="n">
@@ -4303,12 +4258,12 @@
       </c>
       <c r="B198" s="9" t="inlineStr">
         <is>
-          <t>No.4688</t>
+          <t>No.0015T</t>
         </is>
       </c>
       <c r="C198" s="9" t="inlineStr">
         <is>
-          <t>0012715869</t>
+          <t>0012999778</t>
         </is>
       </c>
       <c r="D198" s="9" t="n">
@@ -4321,16 +4276,21 @@
       </c>
       <c r="B199" s="9" t="inlineStr">
         <is>
-          <t>No.4693</t>
+          <t>No.00181</t>
         </is>
       </c>
       <c r="C199" s="9" t="inlineStr">
         <is>
-          <t>0012702702</t>
+          <t>0012299084</t>
         </is>
       </c>
       <c r="D199" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E199" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -4339,16 +4299,21 @@
       </c>
       <c r="B200" s="9" t="inlineStr">
         <is>
-          <t>No.4701</t>
+          <t>No.00182</t>
         </is>
       </c>
       <c r="C200" s="9" t="inlineStr">
         <is>
-          <t>0012654562</t>
+          <t>0012299061</t>
         </is>
       </c>
       <c r="D200" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -4357,16 +4322,21 @@
       </c>
       <c r="B201" s="9" t="inlineStr">
         <is>
-          <t>No.4813</t>
+          <t>No.00184</t>
         </is>
       </c>
       <c r="C201" s="9" t="inlineStr">
         <is>
-          <t>0012422534</t>
+          <t>0012298852</t>
         </is>
       </c>
       <c r="D201" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E201" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -4375,16 +4345,21 @@
       </c>
       <c r="B202" s="9" t="inlineStr">
         <is>
-          <t>No.4814</t>
+          <t>No.00187</t>
         </is>
       </c>
       <c r="C202" s="9" t="inlineStr">
         <is>
-          <t>0012422274</t>
+          <t>0012298811</t>
         </is>
       </c>
       <c r="D202" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -4393,16 +4368,21 @@
       </c>
       <c r="B203" s="9" t="inlineStr">
         <is>
-          <t>No.4815</t>
+          <t>No.00190</t>
         </is>
       </c>
       <c r="C203" s="9" t="inlineStr">
         <is>
-          <t>0012416393</t>
+          <t>0012297881</t>
         </is>
       </c>
       <c r="D203" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E203" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -4411,16 +4391,21 @@
       </c>
       <c r="B204" s="9" t="inlineStr">
         <is>
-          <t>No.4816</t>
+          <t>No.00195</t>
         </is>
       </c>
       <c r="C204" s="9" t="inlineStr">
         <is>
-          <t>0012416099</t>
+          <t>0012297968</t>
         </is>
       </c>
       <c r="D204" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -4429,16 +4414,21 @@
       </c>
       <c r="B205" s="9" t="inlineStr">
         <is>
-          <t>No.4817</t>
+          <t>No.00202</t>
         </is>
       </c>
       <c r="C205" s="9" t="inlineStr">
         <is>
-          <t>0012409891</t>
+          <t>0012310356</t>
         </is>
       </c>
       <c r="D205" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E205" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -4447,16 +4437,21 @@
       </c>
       <c r="B206" s="9" t="inlineStr">
         <is>
-          <t>No.4818</t>
+          <t>No.00204</t>
         </is>
       </c>
       <c r="C206" s="9" t="inlineStr">
         <is>
-          <t>0012409608</t>
+          <t>0012299045</t>
         </is>
       </c>
       <c r="D206" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E206" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -4465,16 +4460,21 @@
       </c>
       <c r="B207" s="9" t="inlineStr">
         <is>
-          <t>No.4819</t>
+          <t>No.00205</t>
         </is>
       </c>
       <c r="C207" s="9" t="inlineStr">
         <is>
-          <t>0012350213</t>
+          <t>0012975586</t>
         </is>
       </c>
       <c r="D207" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E207" s="9" t="inlineStr">
+        <is>
+          <t>ÔTÔ LƯỢT</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="B208" s="9" t="inlineStr">
         <is>
-          <t>No.4820</t>
+          <t>No.0020T</t>
         </is>
       </c>
       <c r="C208" s="9" t="inlineStr">
         <is>
-          <t>0012351531</t>
+          <t>0012967859</t>
         </is>
       </c>
       <c r="D208" s="9" t="n">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="B209" s="9" t="inlineStr">
         <is>
-          <t>No.4821</t>
+          <t>No.0045T</t>
         </is>
       </c>
       <c r="C209" s="9" t="inlineStr">
         <is>
-          <t>0012351694</t>
+          <t>0013000124</t>
         </is>
       </c>
       <c r="D209" s="9" t="n">
@@ -4519,12 +4519,12 @@
       </c>
       <c r="B210" s="9" t="inlineStr">
         <is>
-          <t>No.4824</t>
+          <t>No.0047T</t>
         </is>
       </c>
       <c r="C210" s="9" t="inlineStr">
         <is>
-          <t>0012360382</t>
+          <t>0012969278</t>
         </is>
       </c>
       <c r="D210" s="9" t="n">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B211" s="9" t="inlineStr">
         <is>
-          <t>No.4828</t>
+          <t>No.0048T</t>
         </is>
       </c>
       <c r="C211" s="9" t="inlineStr">
         <is>
-          <t>0012372216</t>
+          <t>0012969279</t>
         </is>
       </c>
       <c r="D211" s="9" t="n">
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B212" s="9" t="inlineStr">
         <is>
-          <t>No.4829</t>
+          <t>No.2378AD</t>
         </is>
       </c>
       <c r="C212" s="9" t="inlineStr">
         <is>
-          <t>0012372508</t>
+          <t>0006845532</t>
         </is>
       </c>
       <c r="D212" s="9" t="n">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="B213" s="9" t="inlineStr">
         <is>
-          <t>No.4830</t>
+          <t>No.2908AD</t>
         </is>
       </c>
       <c r="C213" s="9" t="inlineStr">
         <is>
-          <t>0012378726</t>
+          <t>0002914381</t>
         </is>
       </c>
       <c r="D213" s="9" t="n">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="B214" s="9" t="inlineStr">
         <is>
-          <t>No.4831</t>
+          <t>No.3180AD</t>
         </is>
       </c>
       <c r="C214" s="9" t="inlineStr">
         <is>
-          <t>0012379026</t>
+          <t>0013522005</t>
         </is>
       </c>
       <c r="D214" s="9" t="n">
@@ -4609,12 +4609,12 @@
       </c>
       <c r="B215" s="9" t="inlineStr">
         <is>
-          <t>No.4839</t>
+          <t>No.3237AD</t>
         </is>
       </c>
       <c r="C215" s="9" t="inlineStr">
         <is>
-          <t>0012389551</t>
+          <t>0013470642</t>
         </is>
       </c>
       <c r="D215" s="9" t="n">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="B216" s="9" t="inlineStr">
         <is>
-          <t>No.4840</t>
+          <t>No.3421AD</t>
         </is>
       </c>
       <c r="C216" s="9" t="inlineStr">
         <is>
-          <t>0012423526</t>
+          <t>0012382941</t>
         </is>
       </c>
       <c r="D216" s="9" t="n">
@@ -4645,12 +4645,12 @@
       </c>
       <c r="B217" s="9" t="inlineStr">
         <is>
-          <t>No.5021</t>
+          <t>No.3479AD</t>
         </is>
       </c>
       <c r="C217" s="9" t="inlineStr">
         <is>
-          <t>0004142745</t>
+          <t>0013192959</t>
         </is>
       </c>
       <c r="D217" s="9" t="n">
@@ -4663,12 +4663,12 @@
       </c>
       <c r="B218" s="9" t="inlineStr">
         <is>
-          <t>No.5022</t>
+          <t>No.3480AD</t>
         </is>
       </c>
       <c r="C218" s="9" t="inlineStr">
         <is>
-          <t>0004100831</t>
+          <t>0013272351</t>
         </is>
       </c>
       <c r="D218" s="9" t="n">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="B219" s="9" t="inlineStr">
         <is>
-          <t>No.5023</t>
+          <t>No.3481AD</t>
         </is>
       </c>
       <c r="C219" s="9" t="inlineStr">
         <is>
-          <t>0004100830</t>
+          <t>0013413032</t>
         </is>
       </c>
       <c r="D219" s="9" t="n">
@@ -4699,12 +4699,12 @@
       </c>
       <c r="B220" s="9" t="inlineStr">
         <is>
-          <t>No.5024</t>
+          <t>No.3483AD</t>
         </is>
       </c>
       <c r="C220" s="9" t="inlineStr">
         <is>
-          <t>0004100829</t>
+          <t>0013454352</t>
         </is>
       </c>
       <c r="D220" s="9" t="n">
@@ -4717,12 +4717,12 @@
       </c>
       <c r="B221" s="9" t="inlineStr">
         <is>
-          <t>No.5025</t>
+          <t>No.3491AD</t>
         </is>
       </c>
       <c r="C221" s="9" t="inlineStr">
         <is>
-          <t>0004100828</t>
+          <t>0013484508</t>
         </is>
       </c>
       <c r="D221" s="9" t="n">
@@ -4735,12 +4735,12 @@
       </c>
       <c r="B222" s="9" t="inlineStr">
         <is>
-          <t>No.5026</t>
+          <t>No.3500AD</t>
         </is>
       </c>
       <c r="C222" s="9" t="inlineStr">
         <is>
-          <t>0004100827</t>
+          <t>0013607719</t>
         </is>
       </c>
       <c r="D222" s="9" t="n">
@@ -4753,12 +4753,12 @@
       </c>
       <c r="B223" s="9" t="inlineStr">
         <is>
-          <t>No.5027</t>
+          <t>No.3508AD</t>
         </is>
       </c>
       <c r="C223" s="9" t="inlineStr">
         <is>
-          <t>0004100826</t>
+          <t>0013607439</t>
         </is>
       </c>
       <c r="D223" s="9" t="n">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="B224" s="9" t="inlineStr">
         <is>
-          <t>No.5033</t>
+          <t>No.3509AD</t>
         </is>
       </c>
       <c r="C224" s="9" t="inlineStr">
         <is>
-          <t>0004142740</t>
+          <t>0013693187</t>
         </is>
       </c>
       <c r="D224" s="9" t="n">
@@ -4789,12 +4789,12 @@
       </c>
       <c r="B225" s="9" t="inlineStr">
         <is>
-          <t>No.5034</t>
+          <t>No.3519AD</t>
         </is>
       </c>
       <c r="C225" s="9" t="inlineStr">
         <is>
-          <t>0004142739</t>
+          <t>0013633538</t>
         </is>
       </c>
       <c r="D225" s="9" t="n">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B226" s="9" t="inlineStr">
         <is>
-          <t>No.5035</t>
+          <t>No.3529AD</t>
         </is>
       </c>
       <c r="C226" s="9" t="inlineStr">
         <is>
-          <t>0004142738</t>
+          <t>0013454366</t>
         </is>
       </c>
       <c r="D226" s="9" t="n">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="B227" s="9" t="inlineStr">
         <is>
-          <t>No.5037</t>
+          <t>No.3572AD</t>
         </is>
       </c>
       <c r="C227" s="9" t="inlineStr">
         <is>
-          <t>0004142761</t>
+          <t>0012241226</t>
         </is>
       </c>
       <c r="D227" s="9" t="n">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="B228" s="9" t="inlineStr">
         <is>
-          <t>No.5038</t>
+          <t>No.3577AD</t>
         </is>
       </c>
       <c r="C228" s="9" t="inlineStr">
         <is>
-          <t>0004142762</t>
+          <t>0012224349</t>
         </is>
       </c>
       <c r="D228" s="9" t="n">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B229" s="9" t="inlineStr">
         <is>
-          <t>No.5039</t>
+          <t>No.3628AD</t>
         </is>
       </c>
       <c r="C229" s="9" t="inlineStr">
         <is>
-          <t>0004142736</t>
+          <t>0012359502</t>
         </is>
       </c>
       <c r="D229" s="9" t="n">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="B230" s="9" t="inlineStr">
         <is>
-          <t>No.5040</t>
+          <t>No.3635AD</t>
         </is>
       </c>
       <c r="C230" s="9" t="inlineStr">
         <is>
-          <t>0012657460</t>
+          <t>0012390873</t>
         </is>
       </c>
       <c r="D230" s="9" t="n">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="B231" s="9" t="inlineStr">
         <is>
-          <t>No.5041</t>
+          <t>No.3663AD</t>
         </is>
       </c>
       <c r="C231" s="9" t="inlineStr">
         <is>
-          <t>0004142734</t>
+          <t>0012100600</t>
         </is>
       </c>
       <c r="D231" s="9" t="n">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="B232" s="9" t="inlineStr">
         <is>
-          <t>No.5042</t>
+          <t>No.3783AD</t>
         </is>
       </c>
       <c r="C232" s="9" t="inlineStr">
         <is>
-          <t>0004142732</t>
+          <t>0008378629</t>
         </is>
       </c>
       <c r="D232" s="9" t="n">
@@ -4933,12 +4933,12 @@
       </c>
       <c r="B233" s="9" t="inlineStr">
         <is>
-          <t>No.5044</t>
+          <t>No.3804AD</t>
         </is>
       </c>
       <c r="C233" s="9" t="inlineStr">
         <is>
-          <t>0004142730</t>
+          <t>0008262686</t>
         </is>
       </c>
       <c r="D233" s="9" t="n">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="B234" s="9" t="inlineStr">
         <is>
-          <t>No.5045</t>
+          <t>No.3805AD</t>
         </is>
       </c>
       <c r="C234" s="9" t="inlineStr">
         <is>
-          <t>0012650950</t>
+          <t>0008367920</t>
         </is>
       </c>
       <c r="D234" s="9" t="n">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="B235" s="9" t="inlineStr">
         <is>
-          <t>No.5046</t>
+          <t>No.AD2493</t>
         </is>
       </c>
       <c r="C235" s="9" t="inlineStr">
         <is>
-          <t>0012650660</t>
+          <t>0008966602</t>
         </is>
       </c>
       <c r="D235" s="9" t="n">
